--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7261,10 +7261,8 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -7282,10 +7280,8 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -7303,10 +7299,8 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G288" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -7337,10 +7331,8 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -7370,10 +7362,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -7403,10 +7393,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -7436,10 +7424,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -7465,10 +7451,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -7490,10 +7474,8 @@
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -7515,10 +7497,8 @@
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -7540,10 +7520,8 @@
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -7565,10 +7543,8 @@
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -7594,10 +7570,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -7628,10 +7602,8 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -7661,10 +7633,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -7690,10 +7660,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -7719,10 +7687,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -7744,10 +7710,8 @@
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -7777,10 +7741,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -7810,10 +7772,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G307" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -7839,10 +7799,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -7868,10 +7826,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -7897,10 +7853,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -7926,10 +7880,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -7955,10 +7907,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -7980,10 +7930,8 @@
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -8005,10 +7953,8 @@
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -8026,10 +7972,8 @@
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -8064,10 +8008,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -8089,10 +8031,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G318" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -8110,10 +8050,8 @@
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -8131,10 +8069,8 @@
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -8152,10 +8088,8 @@
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -8173,10 +8107,8 @@
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -8206,10 +8138,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G323" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -8227,10 +8157,8 @@
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -8252,10 +8180,8 @@
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -8277,10 +8203,8 @@
       </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -8302,10 +8226,8 @@
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -8327,10 +8249,8 @@
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -8352,10 +8272,8 @@
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -8377,10 +8295,8 @@
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -8402,10 +8318,8 @@
       </c>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -8427,10 +8341,8 @@
       </c>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -8452,10 +8364,8 @@
       </c>
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -8477,10 +8387,8 @@
       </c>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -8502,10 +8410,8 @@
       </c>
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -8523,10 +8429,8 @@
       </c>
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -8544,10 +8448,8 @@
       </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -8578,10 +8480,8 @@
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G339" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -8611,10 +8511,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -8640,10 +8538,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -8669,10 +8565,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -8698,10 +8592,8 @@
         </is>
       </c>
       <c r="F343" t="inlineStr"/>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G343" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8723,10 +8615,8 @@
       </c>
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -8748,10 +8638,8 @@
       </c>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -8769,10 +8657,8 @@
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -8802,10 +8688,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -8823,10 +8707,8 @@
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -8848,10 +8730,8 @@
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -8869,10 +8749,8 @@
       <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -8890,10 +8768,8 @@
       <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -8911,10 +8787,8 @@
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -8932,10 +8806,8 @@
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -8953,10 +8825,8 @@
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -8987,10 +8857,8 @@
       <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G356" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -9008,10 +8876,8 @@
       <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G357" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -9033,10 +8899,8 @@
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -9066,10 +8930,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G359" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -9099,10 +8961,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G360" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -9132,10 +8992,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G361" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -9165,10 +9023,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -9194,10 +9050,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G363" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -9227,10 +9081,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -9256,10 +9108,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -9285,10 +9135,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -9318,10 +9166,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -9347,10 +9193,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -9380,10 +9224,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G369" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -9409,10 +9251,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -9438,10 +9278,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -9467,10 +9305,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -9496,10 +9332,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -9517,10 +9351,8 @@
       <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -9542,10 +9374,8 @@
       </c>
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -9567,10 +9397,8 @@
       </c>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -9622,10 +9450,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -9643,10 +9469,8 @@
       <c r="D380" t="inlineStr"/>
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -9664,10 +9488,8 @@
       <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -9689,10 +9511,8 @@
       </c>
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -9714,10 +9534,8 @@
       </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -9739,10 +9557,8 @@
       </c>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -9777,10 +9593,8 @@
       </c>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -9806,10 +9620,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G387" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -9831,10 +9643,8 @@
       </c>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -9860,10 +9670,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -9889,10 +9697,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -9914,10 +9720,8 @@
       </c>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -9939,10 +9743,8 @@
       </c>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -9968,10 +9770,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -9989,10 +9789,8 @@
       <c r="D394" t="inlineStr"/>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -10014,10 +9812,8 @@
       </c>
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -10033,6 +9829,8037 @@
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
     </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr"/>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>12:05 AM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G477" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr"/>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr"/>
+      <c r="G509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr"/>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G525" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G528" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G549" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr"/>
+      <c r="G554" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr"/>
+      <c r="G562" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G566" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G567" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G568" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr"/>
+      <c r="G569" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr"/>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G573" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="inlineStr"/>
+      <c r="F574" t="inlineStr"/>
+      <c r="G574" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr"/>
+      <c r="G576" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr"/>
+      <c r="E578" t="inlineStr"/>
+      <c r="F578" t="inlineStr"/>
+      <c r="G578" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr"/>
+      <c r="E580" t="inlineStr"/>
+      <c r="F580" t="inlineStr"/>
+      <c r="G580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>12:05 AM</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr"/>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" t="inlineStr"/>
+      <c r="G583" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr"/>
+      <c r="F584" t="inlineStr"/>
+      <c r="G584" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G587" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G588" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr"/>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G589" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G590" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr"/>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G591" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G592" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G593" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G594" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G596" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr"/>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr"/>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G598" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr"/>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G599" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr"/>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr"/>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G605" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr"/>
+      <c r="E606" t="inlineStr"/>
+      <c r="F606" t="inlineStr"/>
+      <c r="G606" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr"/>
+      <c r="G609" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr"/>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr"/>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr"/>
+      <c r="E611" t="inlineStr"/>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr"/>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr"/>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr"/>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr"/>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr"/>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr"/>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr"/>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr"/>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr"/>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr"/>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>12:05 AM</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr"/>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G735"/>
+  <dimension ref="A1:G848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15088,10 +15088,8 @@
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -15109,10 +15107,8 @@
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -15130,10 +15126,8 @@
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -15164,10 +15158,8 @@
       <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -15197,10 +15189,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -15230,10 +15220,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -15263,10 +15251,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -15292,10 +15278,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -15317,10 +15301,8 @@
         </is>
       </c>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -15342,10 +15324,8 @@
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -15367,10 +15347,8 @@
       </c>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -15392,10 +15370,8 @@
       </c>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -15421,10 +15397,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -15455,10 +15429,8 @@
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -15488,10 +15460,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -15517,10 +15487,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -15546,10 +15514,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -15571,10 +15537,8 @@
       </c>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -15604,10 +15568,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G645" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G645" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -15637,10 +15599,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G646" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -15666,10 +15626,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -15695,10 +15653,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -15724,10 +15680,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -15753,10 +15707,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -15782,10 +15734,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -15807,10 +15757,8 @@
       </c>
       <c r="E652" t="inlineStr"/>
       <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -15832,10 +15780,8 @@
       </c>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -15853,10 +15799,8 @@
       </c>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr"/>
-      <c r="G654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -15891,10 +15835,8 @@
       </c>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="657">
@@ -15916,10 +15858,8 @@
       </c>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -15937,10 +15877,8 @@
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -15958,10 +15896,8 @@
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -15979,10 +15915,8 @@
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -16000,10 +15934,8 @@
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -16033,10 +15965,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="663">
@@ -16054,10 +15984,8 @@
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -16079,10 +16007,8 @@
       </c>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -16104,10 +16030,8 @@
       </c>
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="666">
@@ -16129,10 +16053,8 @@
       </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -16154,10 +16076,8 @@
       </c>
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -16179,10 +16099,8 @@
       </c>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -16204,10 +16122,8 @@
       </c>
       <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -16229,10 +16145,8 @@
       </c>
       <c r="E670" t="inlineStr"/>
       <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -16254,10 +16168,8 @@
       </c>
       <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -16279,10 +16191,8 @@
       </c>
       <c r="E672" t="inlineStr"/>
       <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -16304,10 +16214,8 @@
       </c>
       <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -16329,10 +16237,8 @@
       </c>
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -16350,10 +16256,8 @@
       </c>
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -16371,10 +16275,8 @@
       </c>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -16405,10 +16307,8 @@
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G678" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -16438,10 +16338,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -16467,10 +16365,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -16496,10 +16392,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -16525,10 +16419,8 @@
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -16550,10 +16442,8 @@
       </c>
       <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -16575,10 +16465,8 @@
       </c>
       <c r="E684" t="inlineStr"/>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -16596,10 +16484,8 @@
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr"/>
       <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="686">
@@ -16629,10 +16515,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -16650,10 +16534,8 @@
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr"/>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -16675,10 +16557,8 @@
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -16696,10 +16576,8 @@
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -16717,10 +16595,8 @@
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr"/>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -16738,10 +16614,8 @@
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr"/>
       <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -16759,10 +16633,8 @@
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr"/>
       <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -16780,10 +16652,8 @@
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -16814,10 +16684,8 @@
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -16835,10 +16703,8 @@
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr"/>
       <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="697">
@@ -16860,10 +16726,8 @@
       </c>
       <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -16893,10 +16757,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G698" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -16926,10 +16788,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G699" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -16959,10 +16819,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="701">
@@ -16992,10 +16850,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="702">
@@ -17021,10 +16877,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -17054,10 +16908,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="704">
@@ -17083,10 +16935,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="705">
@@ -17112,10 +16962,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -17145,10 +16993,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -17174,10 +17020,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -17207,10 +17051,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G708" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -17236,10 +17078,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -17265,10 +17105,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -17294,10 +17132,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -17323,10 +17159,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -17344,10 +17178,8 @@
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -17369,10 +17201,8 @@
       </c>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -17394,10 +17224,8 @@
       </c>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -17449,10 +17277,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -17470,10 +17296,8 @@
       <c r="D719" t="inlineStr"/>
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -17491,10 +17315,8 @@
       <c r="D720" t="inlineStr"/>
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -17516,10 +17338,8 @@
       </c>
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -17541,10 +17361,8 @@
       </c>
       <c r="E722" t="inlineStr"/>
       <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -17566,10 +17384,8 @@
       </c>
       <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -17604,10 +17420,8 @@
       </c>
       <c r="E725" t="inlineStr"/>
       <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G725" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -17633,10 +17447,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G726" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -17658,10 +17470,8 @@
       </c>
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -17687,10 +17497,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -17716,10 +17524,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -17741,10 +17547,8 @@
       </c>
       <c r="E730" t="inlineStr"/>
       <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -17766,10 +17570,8 @@
       </c>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="732">
@@ -17795,10 +17597,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -17816,10 +17616,8 @@
       <c r="D733" t="inlineStr"/>
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr"/>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -17841,10 +17639,8 @@
       </c>
       <c r="E734" t="inlineStr"/>
       <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -17860,6 +17656,2819 @@
       <c r="F735" t="inlineStr"/>
       <c r="G735" t="inlineStr"/>
     </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr"/>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr"/>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr"/>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr"/>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr"/>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr"/>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr"/>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr"/>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr"/>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr"/>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr"/>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr"/>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr"/>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr"/>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="inlineStr"/>
+      <c r="E771" t="inlineStr"/>
+      <c r="F771" t="inlineStr"/>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr"/>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr"/>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr"/>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="inlineStr"/>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="inlineStr"/>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr"/>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr"/>
+      <c r="F787" t="inlineStr"/>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr"/>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr"/>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr"/>
+      <c r="F788" t="inlineStr"/>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr"/>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr"/>
+      <c r="F789" t="inlineStr"/>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr"/>
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
+      <c r="G790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr"/>
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr"/>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr"/>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr"/>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr"/>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr"/>
+      <c r="F797" t="inlineStr"/>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr"/>
+      <c r="E798" t="inlineStr"/>
+      <c r="F798" t="inlineStr"/>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr"/>
+      <c r="D800" t="inlineStr"/>
+      <c r="E800" t="inlineStr"/>
+      <c r="F800" t="inlineStr"/>
+      <c r="G800" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr"/>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr"/>
+      <c r="D802" t="inlineStr"/>
+      <c r="E802" t="inlineStr"/>
+      <c r="F802" t="inlineStr"/>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr"/>
+      <c r="D803" t="inlineStr"/>
+      <c r="E803" t="inlineStr"/>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr"/>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr"/>
+      <c r="E805" t="inlineStr"/>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr"/>
+      <c r="E806" t="inlineStr"/>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr"/>
+      <c r="E807" t="inlineStr"/>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr"/>
+      <c r="D808" t="inlineStr"/>
+      <c r="E808" t="inlineStr"/>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>12:05 AM</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr"/>
+      <c r="E809" t="inlineStr"/>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr"/>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr"/>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr"/>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr"/>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr"/>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr"/>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr"/>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr"/>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr"/>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr"/>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr"/>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr"/>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr"/>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr"/>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr"/>
+      <c r="D826" t="inlineStr"/>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr"/>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr"/>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr"/>
+      <c r="C829" t="inlineStr"/>
+      <c r="D829" t="inlineStr"/>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr"/>
+      <c r="C830" t="inlineStr"/>
+      <c r="D830" t="inlineStr"/>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr"/>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr"/>
+      <c r="D832" t="inlineStr"/>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr"/>
+      <c r="D833" t="inlineStr"/>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr"/>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr"/>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr"/>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr"/>
+      <c r="C837" t="inlineStr"/>
+      <c r="D837" t="inlineStr"/>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr"/>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr"/>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr"/>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr"/>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr"/>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr"/>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr"/>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr"/>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr"/>
+      <c r="F844" t="inlineStr"/>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr"/>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr"/>
+      <c r="D846" t="inlineStr"/>
+      <c r="E846" t="inlineStr"/>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr"/>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr"/>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr"/>
+      <c r="C848" t="inlineStr"/>
+      <c r="D848" t="inlineStr"/>
+      <c r="E848" t="inlineStr"/>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G848"/>
+  <dimension ref="A1:G961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17697,10 +17697,8 @@
       <c r="D738" t="inlineStr"/>
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr"/>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -17718,10 +17716,8 @@
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -17739,10 +17735,8 @@
       <c r="D740" t="inlineStr"/>
       <c r="E740" t="inlineStr"/>
       <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -17773,10 +17767,8 @@
       <c r="D742" t="inlineStr"/>
       <c r="E742" t="inlineStr"/>
       <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -17806,10 +17798,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="744">
@@ -17839,10 +17829,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G744" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="745">
@@ -17872,10 +17860,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -17901,10 +17887,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -17926,10 +17910,8 @@
         </is>
       </c>
       <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -17951,10 +17933,8 @@
       </c>
       <c r="E748" t="inlineStr"/>
       <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -17976,10 +17956,8 @@
       </c>
       <c r="E749" t="inlineStr"/>
       <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -18001,10 +17979,8 @@
       </c>
       <c r="E750" t="inlineStr"/>
       <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -18030,10 +18006,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -18064,10 +18038,8 @@
       <c r="D753" t="inlineStr"/>
       <c r="E753" t="inlineStr"/>
       <c r="F753" t="inlineStr"/>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -18097,10 +18069,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -18126,10 +18096,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -18155,10 +18123,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -18180,10 +18146,8 @@
       </c>
       <c r="E757" t="inlineStr"/>
       <c r="F757" t="inlineStr"/>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="758">
@@ -18213,10 +18177,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G758" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -18246,10 +18208,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G759" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -18275,10 +18235,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -18304,10 +18262,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -18333,10 +18289,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -18362,10 +18316,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -18391,10 +18343,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -18416,10 +18366,8 @@
       </c>
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -18441,10 +18389,8 @@
       </c>
       <c r="E766" t="inlineStr"/>
       <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -18462,10 +18408,8 @@
       </c>
       <c r="E767" t="inlineStr"/>
       <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -18500,10 +18444,8 @@
       </c>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -18525,10 +18467,8 @@
       </c>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -18546,10 +18486,8 @@
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -18567,10 +18505,8 @@
       <c r="D772" t="inlineStr"/>
       <c r="E772" t="inlineStr"/>
       <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -18588,10 +18524,8 @@
       <c r="D773" t="inlineStr"/>
       <c r="E773" t="inlineStr"/>
       <c r="F773" t="inlineStr"/>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -18609,10 +18543,8 @@
       <c r="D774" t="inlineStr"/>
       <c r="E774" t="inlineStr"/>
       <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -18642,10 +18574,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -18663,10 +18593,8 @@
       <c r="D776" t="inlineStr"/>
       <c r="E776" t="inlineStr"/>
       <c r="F776" t="inlineStr"/>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="777">
@@ -18688,10 +18616,8 @@
       </c>
       <c r="E777" t="inlineStr"/>
       <c r="F777" t="inlineStr"/>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="778">
@@ -18713,10 +18639,8 @@
       </c>
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -18738,10 +18662,8 @@
       </c>
       <c r="E779" t="inlineStr"/>
       <c r="F779" t="inlineStr"/>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -18763,10 +18685,8 @@
       </c>
       <c r="E780" t="inlineStr"/>
       <c r="F780" t="inlineStr"/>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -18788,10 +18708,8 @@
       </c>
       <c r="E781" t="inlineStr"/>
       <c r="F781" t="inlineStr"/>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -18813,10 +18731,8 @@
       </c>
       <c r="E782" t="inlineStr"/>
       <c r="F782" t="inlineStr"/>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -18838,10 +18754,8 @@
       </c>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -18863,10 +18777,8 @@
       </c>
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -18888,10 +18800,8 @@
       </c>
       <c r="E785" t="inlineStr"/>
       <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -18913,10 +18823,8 @@
       </c>
       <c r="E786" t="inlineStr"/>
       <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -18938,10 +18846,8 @@
       </c>
       <c r="E787" t="inlineStr"/>
       <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -18959,10 +18865,8 @@
       </c>
       <c r="E788" t="inlineStr"/>
       <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -18980,10 +18884,8 @@
       </c>
       <c r="E789" t="inlineStr"/>
       <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -19014,10 +18916,8 @@
       <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G791" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -19047,10 +18947,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -19076,10 +18974,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -19105,10 +19001,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -19134,10 +19028,8 @@
         </is>
       </c>
       <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -19159,10 +19051,8 @@
       </c>
       <c r="E796" t="inlineStr"/>
       <c r="F796" t="inlineStr"/>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -19184,10 +19074,8 @@
       </c>
       <c r="E797" t="inlineStr"/>
       <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -19205,10 +19093,8 @@
       <c r="D798" t="inlineStr"/>
       <c r="E798" t="inlineStr"/>
       <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="799">
@@ -19238,10 +19124,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -19259,10 +19143,8 @@
       <c r="D800" t="inlineStr"/>
       <c r="E800" t="inlineStr"/>
       <c r="F800" t="inlineStr"/>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -19284,10 +19166,8 @@
         </is>
       </c>
       <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -19305,10 +19185,8 @@
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr"/>
       <c r="F802" t="inlineStr"/>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="803">
@@ -19326,10 +19204,8 @@
       <c r="D803" t="inlineStr"/>
       <c r="E803" t="inlineStr"/>
       <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="804">
@@ -19347,10 +19223,8 @@
       <c r="D804" t="inlineStr"/>
       <c r="E804" t="inlineStr"/>
       <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -19368,10 +19242,8 @@
       <c r="D805" t="inlineStr"/>
       <c r="E805" t="inlineStr"/>
       <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="806">
@@ -19389,10 +19261,8 @@
       <c r="D806" t="inlineStr"/>
       <c r="E806" t="inlineStr"/>
       <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -19423,10 +19293,8 @@
       <c r="D808" t="inlineStr"/>
       <c r="E808" t="inlineStr"/>
       <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -19444,10 +19312,8 @@
       <c r="D809" t="inlineStr"/>
       <c r="E809" t="inlineStr"/>
       <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -19469,10 +19335,8 @@
       </c>
       <c r="E810" t="inlineStr"/>
       <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -19502,10 +19366,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G811" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -19535,10 +19397,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G812" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="813">
@@ -19568,10 +19428,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -19601,10 +19459,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="815">
@@ -19630,10 +19486,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -19663,10 +19517,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -19692,10 +19544,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -19721,10 +19571,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -19754,10 +19602,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -19783,10 +19629,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -19816,10 +19660,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G821" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="822">
@@ -19845,10 +19687,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -19874,10 +19714,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -19903,10 +19741,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -19932,10 +19768,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -19953,10 +19787,8 @@
       <c r="D826" t="inlineStr"/>
       <c r="E826" t="inlineStr"/>
       <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -19978,10 +19810,8 @@
       </c>
       <c r="E827" t="inlineStr"/>
       <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -20003,10 +19833,8 @@
       </c>
       <c r="E828" t="inlineStr"/>
       <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -20058,10 +19886,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -20079,10 +19905,8 @@
       <c r="D832" t="inlineStr"/>
       <c r="E832" t="inlineStr"/>
       <c r="F832" t="inlineStr"/>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -20100,10 +19924,8 @@
       <c r="D833" t="inlineStr"/>
       <c r="E833" t="inlineStr"/>
       <c r="F833" t="inlineStr"/>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -20125,10 +19947,8 @@
       </c>
       <c r="E834" t="inlineStr"/>
       <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -20150,10 +19970,8 @@
       </c>
       <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -20175,10 +19993,8 @@
       </c>
       <c r="E836" t="inlineStr"/>
       <c r="F836" t="inlineStr"/>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -20213,10 +20029,8 @@
       </c>
       <c r="E838" t="inlineStr"/>
       <c r="F838" t="inlineStr"/>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="839">
@@ -20242,10 +20056,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G839" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -20267,10 +20079,8 @@
       </c>
       <c r="E840" t="inlineStr"/>
       <c r="F840" t="inlineStr"/>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -20296,10 +20106,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -20325,10 +20133,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -20350,10 +20156,8 @@
       </c>
       <c r="E843" t="inlineStr"/>
       <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -20375,10 +20179,8 @@
       </c>
       <c r="E844" t="inlineStr"/>
       <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -20404,10 +20206,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -20425,10 +20225,8 @@
       <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr"/>
       <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -20450,10 +20248,8 @@
       </c>
       <c r="E847" t="inlineStr"/>
       <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -20469,6 +20265,2819 @@
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
     </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr"/>
+      <c r="C849" t="inlineStr"/>
+      <c r="D849" t="inlineStr"/>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr"/>
+      <c r="C850" t="inlineStr"/>
+      <c r="D850" t="inlineStr"/>
+      <c r="E850" t="inlineStr"/>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr"/>
+      <c r="D851" t="inlineStr"/>
+      <c r="E851" t="inlineStr"/>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr"/>
+      <c r="D852" t="inlineStr"/>
+      <c r="E852" t="inlineStr"/>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr"/>
+      <c r="D853" t="inlineStr"/>
+      <c r="E853" t="inlineStr"/>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr"/>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="inlineStr"/>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr"/>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr"/>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr"/>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr"/>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr"/>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr"/>
+      <c r="D860" t="inlineStr"/>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr"/>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr"/>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr"/>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr"/>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr"/>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr"/>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr"/>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr"/>
+      <c r="C865" t="inlineStr"/>
+      <c r="D865" t="inlineStr"/>
+      <c r="E865" t="inlineStr"/>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr"/>
+      <c r="D866" t="inlineStr"/>
+      <c r="E866" t="inlineStr"/>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr"/>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr"/>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr"/>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr"/>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr"/>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr"/>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr"/>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr"/>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr"/>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr"/>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr"/>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr"/>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr"/>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr"/>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr"/>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr"/>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr"/>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr"/>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr"/>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr"/>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr"/>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr"/>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
+      <c r="C881" t="inlineStr"/>
+      <c r="D881" t="inlineStr"/>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr"/>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr"/>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr"/>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr"/>
+      <c r="D884" t="inlineStr"/>
+      <c r="E884" t="inlineStr"/>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr"/>
+      <c r="D885" t="inlineStr"/>
+      <c r="E885" t="inlineStr"/>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr"/>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr"/>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr"/>
+      <c r="D887" t="inlineStr"/>
+      <c r="E887" t="inlineStr"/>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr"/>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr"/>
+      <c r="D889" t="inlineStr"/>
+      <c r="E889" t="inlineStr"/>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr"/>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr"/>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr"/>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr"/>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr"/>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr"/>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr"/>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr"/>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr"/>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr"/>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr"/>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr"/>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr"/>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr"/>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr"/>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr"/>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr"/>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr"/>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr"/>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr"/>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr"/>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr"/>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr"/>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr"/>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr"/>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr"/>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr"/>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr"/>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+      <c r="C903" t="inlineStr"/>
+      <c r="D903" t="inlineStr"/>
+      <c r="E903" t="inlineStr"/>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr"/>
+      <c r="D904" t="inlineStr"/>
+      <c r="E904" t="inlineStr"/>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr"/>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr"/>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr"/>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr"/>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr"/>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr"/>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr"/>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr"/>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr"/>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr"/>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr"/>
+      <c r="D911" t="inlineStr"/>
+      <c r="E911" t="inlineStr"/>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr"/>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr"/>
+      <c r="D913" t="inlineStr"/>
+      <c r="E913" t="inlineStr"/>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr"/>
+      <c r="D914" t="inlineStr"/>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr"/>
+      <c r="D915" t="inlineStr"/>
+      <c r="E915" t="inlineStr"/>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr"/>
+      <c r="D916" t="inlineStr"/>
+      <c r="E916" t="inlineStr"/>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr"/>
+      <c r="D917" t="inlineStr"/>
+      <c r="E917" t="inlineStr"/>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr"/>
+      <c r="D918" t="inlineStr"/>
+      <c r="E918" t="inlineStr"/>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr"/>
+      <c r="D919" t="inlineStr"/>
+      <c r="E919" t="inlineStr"/>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr"/>
+      <c r="C920" t="inlineStr"/>
+      <c r="D920" t="inlineStr"/>
+      <c r="E920" t="inlineStr"/>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr"/>
+      <c r="D921" t="inlineStr"/>
+      <c r="E921" t="inlineStr"/>
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>12:05 AM</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr"/>
+      <c r="D922" t="inlineStr"/>
+      <c r="E922" t="inlineStr"/>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr"/>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr"/>
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr"/>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr"/>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr"/>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr"/>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr"/>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr"/>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr"/>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr"/>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr"/>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr"/>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr"/>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr"/>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr"/>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr"/>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr"/>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr"/>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr"/>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr"/>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr"/>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr"/>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr"/>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr"/>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr"/>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr"/>
+      <c r="D939" t="inlineStr"/>
+      <c r="E939" t="inlineStr"/>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr"/>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr"/>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr"/>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr"/>
+      <c r="D942" t="inlineStr"/>
+      <c r="E942" t="inlineStr"/>
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr"/>
+      <c r="C943" t="inlineStr"/>
+      <c r="D943" t="inlineStr"/>
+      <c r="E943" t="inlineStr"/>
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr"/>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr"/>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr"/>
+      <c r="D945" t="inlineStr"/>
+      <c r="E945" t="inlineStr"/>
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr"/>
+      <c r="D946" t="inlineStr"/>
+      <c r="E946" t="inlineStr"/>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr"/>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr"/>
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr"/>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr"/>
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr"/>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr"/>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr"/>
+      <c r="C950" t="inlineStr"/>
+      <c r="D950" t="inlineStr"/>
+      <c r="E950" t="inlineStr"/>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr"/>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr"/>
+      <c r="F951" t="inlineStr"/>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr"/>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr"/>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr"/>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr"/>
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr"/>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr"/>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr"/>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr"/>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr"/>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr"/>
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr"/>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr"/>
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr"/>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr"/>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr"/>
+      <c r="D959" t="inlineStr"/>
+      <c r="E959" t="inlineStr"/>
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr"/>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr"/>
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr"/>
+      <c r="C961" t="inlineStr"/>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr"/>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G961"/>
+  <dimension ref="A1:G1075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20306,10 +20306,8 @@
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr"/>
       <c r="F851" t="inlineStr"/>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -20327,10 +20325,8 @@
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr"/>
       <c r="F852" t="inlineStr"/>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="853">
@@ -20348,10 +20344,8 @@
       <c r="D853" t="inlineStr"/>
       <c r="E853" t="inlineStr"/>
       <c r="F853" t="inlineStr"/>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -20382,10 +20376,8 @@
       <c r="D855" t="inlineStr"/>
       <c r="E855" t="inlineStr"/>
       <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -20415,10 +20407,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -20448,10 +20438,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -20481,10 +20469,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -20510,10 +20496,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -20535,10 +20519,8 @@
         </is>
       </c>
       <c r="F860" t="inlineStr"/>
-      <c r="G860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -20560,10 +20542,8 @@
       </c>
       <c r="E861" t="inlineStr"/>
       <c r="F861" t="inlineStr"/>
-      <c r="G861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -20585,10 +20565,8 @@
       </c>
       <c r="E862" t="inlineStr"/>
       <c r="F862" t="inlineStr"/>
-      <c r="G862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -20610,10 +20588,8 @@
       </c>
       <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr"/>
-      <c r="G863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -20639,10 +20615,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -20673,10 +20647,8 @@
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr"/>
       <c r="F866" t="inlineStr"/>
-      <c r="G866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -20706,10 +20678,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -20735,10 +20705,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -20764,10 +20732,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -20789,10 +20755,8 @@
       </c>
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="inlineStr"/>
-      <c r="G870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -20822,10 +20786,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G871" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G871" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -20855,10 +20817,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G872" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G872" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="873">
@@ -20884,10 +20844,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -20913,10 +20871,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -20942,10 +20898,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -20971,10 +20925,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -21000,10 +20952,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -21025,10 +20975,8 @@
       </c>
       <c r="E878" t="inlineStr"/>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -21050,10 +20998,8 @@
       </c>
       <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -21071,10 +21017,8 @@
       </c>
       <c r="E880" t="inlineStr"/>
       <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -21109,10 +21053,8 @@
       </c>
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -21134,10 +21076,8 @@
       </c>
       <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
-      <c r="G883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -21155,10 +21095,8 @@
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr"/>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -21176,10 +21114,8 @@
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -21197,10 +21133,8 @@
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr"/>
       <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -21218,10 +21152,8 @@
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr"/>
       <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -21251,10 +21183,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -21272,10 +21202,8 @@
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr"/>
       <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -21297,10 +21225,8 @@
       </c>
       <c r="E890" t="inlineStr"/>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -21322,10 +21248,8 @@
       </c>
       <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G891" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="892">
@@ -21347,10 +21271,8 @@
       </c>
       <c r="E892" t="inlineStr"/>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -21372,10 +21294,8 @@
       </c>
       <c r="E893" t="inlineStr"/>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -21397,10 +21317,8 @@
       </c>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -21422,10 +21340,8 @@
       </c>
       <c r="E895" t="inlineStr"/>
       <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -21447,10 +21363,8 @@
       </c>
       <c r="E896" t="inlineStr"/>
       <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -21472,10 +21386,8 @@
       </c>
       <c r="E897" t="inlineStr"/>
       <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -21497,10 +21409,8 @@
       </c>
       <c r="E898" t="inlineStr"/>
       <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -21522,10 +21432,8 @@
       </c>
       <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -21547,10 +21455,8 @@
       </c>
       <c r="E900" t="inlineStr"/>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -21568,10 +21474,8 @@
       </c>
       <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -21589,10 +21493,8 @@
       </c>
       <c r="E902" t="inlineStr"/>
       <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -21623,10 +21525,8 @@
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G904" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -21656,10 +21556,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -21685,10 +21583,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -21714,10 +21610,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -21743,10 +21637,8 @@
         </is>
       </c>
       <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G908" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -21768,10 +21660,8 @@
       </c>
       <c r="E909" t="inlineStr"/>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -21793,10 +21683,8 @@
       </c>
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -21814,10 +21702,8 @@
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G911" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="912">
@@ -21847,10 +21733,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -21868,10 +21752,8 @@
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -21893,10 +21775,8 @@
         </is>
       </c>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -21914,10 +21794,8 @@
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr"/>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -21935,10 +21813,8 @@
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -21956,10 +21832,8 @@
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -21977,10 +21851,8 @@
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -21998,10 +21870,8 @@
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="920">
@@ -22032,10 +21902,8 @@
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr"/>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="922">
@@ -22053,10 +21921,8 @@
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G922" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -22078,10 +21944,8 @@
       </c>
       <c r="E923" t="inlineStr"/>
       <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -22111,10 +21975,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G924" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="925">
@@ -22144,10 +22006,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G925" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="926">
@@ -22177,10 +22037,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="927">
@@ -22210,10 +22068,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -22239,10 +22095,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G928" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="929">
@@ -22272,10 +22126,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -22301,10 +22153,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -22330,10 +22180,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -22363,10 +22211,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -22392,10 +22238,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -22425,10 +22269,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G934" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -22454,10 +22296,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -22483,10 +22323,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -22512,10 +22350,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -22541,10 +22377,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -22562,10 +22396,8 @@
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -22587,10 +22419,8 @@
       </c>
       <c r="E940" t="inlineStr"/>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -22612,10 +22442,8 @@
       </c>
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -22667,10 +22495,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -22688,10 +22514,8 @@
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr"/>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -22709,10 +22533,8 @@
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -22734,10 +22556,8 @@
       </c>
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -22759,10 +22579,8 @@
       </c>
       <c r="E948" t="inlineStr"/>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -22784,10 +22602,8 @@
       </c>
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -22822,10 +22638,8 @@
       </c>
       <c r="E951" t="inlineStr"/>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G951" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="952">
@@ -22851,10 +22665,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G952" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G952" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -22876,10 +22688,8 @@
       </c>
       <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G953" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="954">
@@ -22905,10 +22715,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -22934,10 +22742,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="956">
@@ -22959,10 +22765,8 @@
       </c>
       <c r="E956" t="inlineStr"/>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -22984,10 +22788,8 @@
       </c>
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -23013,10 +22815,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -23034,10 +22834,8 @@
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -23059,10 +22857,8 @@
       </c>
       <c r="E960" t="inlineStr"/>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -23078,6 +22874,2840 @@
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
     </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr"/>
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr"/>
+      <c r="C963" t="inlineStr"/>
+      <c r="D963" t="inlineStr"/>
+      <c r="E963" t="inlineStr"/>
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr"/>
+      <c r="D964" t="inlineStr"/>
+      <c r="E964" t="inlineStr"/>
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr"/>
+      <c r="D965" t="inlineStr"/>
+      <c r="E965" t="inlineStr"/>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr"/>
+      <c r="D966" t="inlineStr"/>
+      <c r="E966" t="inlineStr"/>
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr"/>
+      <c r="C967" t="inlineStr"/>
+      <c r="D967" t="inlineStr"/>
+      <c r="E967" t="inlineStr"/>
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr"/>
+      <c r="D968" t="inlineStr"/>
+      <c r="E968" t="inlineStr"/>
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr"/>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr"/>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr"/>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr"/>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr"/>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr"/>
+      <c r="D973" t="inlineStr"/>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr"/>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr"/>
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr"/>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr"/>
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr"/>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr"/>
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr"/>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr"/>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr"/>
+      <c r="C978" t="inlineStr"/>
+      <c r="D978" t="inlineStr"/>
+      <c r="E978" t="inlineStr"/>
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr"/>
+      <c r="D979" t="inlineStr"/>
+      <c r="E979" t="inlineStr"/>
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr"/>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr"/>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr"/>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr"/>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr"/>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr"/>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr"/>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr"/>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr"/>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr"/>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr"/>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr"/>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr"/>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr"/>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr"/>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr"/>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr"/>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr"/>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr"/>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr"/>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr"/>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr"/>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr"/>
+      <c r="C994" t="inlineStr"/>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr"/>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr"/>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr"/>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr"/>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr"/>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr"/>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr"/>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr"/>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr"/>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr"/>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr"/>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr"/>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr"/>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr"/>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr"/>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr"/>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr"/>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr"/>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr"/>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr"/>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr"/>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr"/>
+      <c r="C1016" t="inlineStr"/>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr"/>
+      <c r="D1017" t="inlineStr"/>
+      <c r="E1017" t="inlineStr"/>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr"/>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr"/>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr"/>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr"/>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr"/>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr"/>
+      <c r="D1024" t="inlineStr"/>
+      <c r="E1024" t="inlineStr"/>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr"/>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr"/>
+      <c r="D1026" t="inlineStr"/>
+      <c r="E1026" t="inlineStr"/>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr"/>
+      <c r="D1027" t="inlineStr"/>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr"/>
+      <c r="D1028" t="inlineStr"/>
+      <c r="E1028" t="inlineStr"/>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr"/>
+      <c r="D1029" t="inlineStr"/>
+      <c r="E1029" t="inlineStr"/>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr"/>
+      <c r="D1030" t="inlineStr"/>
+      <c r="E1030" t="inlineStr"/>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr"/>
+      <c r="D1031" t="inlineStr"/>
+      <c r="E1031" t="inlineStr"/>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr"/>
+      <c r="D1032" t="inlineStr"/>
+      <c r="E1032" t="inlineStr"/>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr"/>
+      <c r="C1033" t="inlineStr"/>
+      <c r="D1033" t="inlineStr"/>
+      <c r="E1033" t="inlineStr"/>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr"/>
+      <c r="D1034" t="inlineStr"/>
+      <c r="E1034" t="inlineStr"/>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>12:05 AM</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr"/>
+      <c r="D1035" t="inlineStr"/>
+      <c r="E1035" t="inlineStr"/>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr"/>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr"/>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr"/>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr"/>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G1038" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr"/>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G1039" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr"/>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr"/>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr"/>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr"/>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr"/>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr"/>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr"/>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr"/>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr"/>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr"/>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr"/>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G1046" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr"/>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr"/>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G1048" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr"/>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr"/>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G1049" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr"/>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr"/>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G1050" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr"/>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr"/>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr"/>
+      <c r="D1052" t="inlineStr"/>
+      <c r="E1052" t="inlineStr"/>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr"/>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr"/>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr"/>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr"/>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr"/>
+      <c r="C1055" t="inlineStr"/>
+      <c r="D1055" t="inlineStr"/>
+      <c r="E1055" t="inlineStr"/>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr"/>
+      <c r="C1056" t="inlineStr"/>
+      <c r="D1056" t="inlineStr"/>
+      <c r="E1056" t="inlineStr"/>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr"/>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr"/>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G1057" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr"/>
+      <c r="E1058" t="inlineStr"/>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr"/>
+      <c r="D1059" t="inlineStr"/>
+      <c r="E1059" t="inlineStr"/>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr"/>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr"/>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr"/>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr"/>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr"/>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr"/>
+      <c r="C1063" t="inlineStr"/>
+      <c r="D1063" t="inlineStr"/>
+      <c r="E1063" t="inlineStr"/>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr"/>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr"/>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr"/>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr"/>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr"/>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr"/>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr"/>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr"/>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr"/>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G1068" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr"/>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr"/>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr"/>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr"/>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr"/>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr"/>
+      <c r="D1072" t="inlineStr"/>
+      <c r="E1072" t="inlineStr"/>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr"/>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr"/>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr"/>
+      <c r="C1074" t="inlineStr"/>
+      <c r="D1074" t="inlineStr"/>
+      <c r="E1074" t="inlineStr"/>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr"/>
+      <c r="D1075" t="inlineStr"/>
+      <c r="E1075" t="inlineStr"/>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1075"/>
+  <dimension ref="A1:G1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22915,10 +22915,8 @@
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G964" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="965">
@@ -22936,10 +22934,8 @@
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr"/>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -22957,10 +22953,8 @@
       <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -22991,10 +22985,8 @@
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr"/>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -23024,10 +23016,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -23057,10 +23047,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G970" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="971">
@@ -23090,10 +23078,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G971" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="972">
@@ -23119,10 +23105,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -23144,10 +23128,8 @@
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -23169,10 +23151,8 @@
       </c>
       <c r="E974" t="inlineStr"/>
       <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -23194,10 +23174,8 @@
       </c>
       <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -23219,10 +23197,8 @@
       </c>
       <c r="E976" t="inlineStr"/>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -23248,10 +23224,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -23282,10 +23256,8 @@
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr"/>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="980">
@@ -23315,10 +23287,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -23344,10 +23314,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -23373,10 +23341,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G982" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="983">
@@ -23398,10 +23364,8 @@
       </c>
       <c r="E983" t="inlineStr"/>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -23431,10 +23395,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G984" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="985">
@@ -23464,10 +23426,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G985" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="986">
@@ -23493,10 +23453,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -23522,10 +23480,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -23551,10 +23507,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -23580,10 +23534,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -23609,10 +23561,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -23634,10 +23584,8 @@
       </c>
       <c r="E991" t="inlineStr"/>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -23659,10 +23607,8 @@
       </c>
       <c r="E992" t="inlineStr"/>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -23680,10 +23626,8 @@
       </c>
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -23718,10 +23662,8 @@
       </c>
       <c r="E995" t="inlineStr"/>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -23743,10 +23685,8 @@
       </c>
       <c r="E996" t="inlineStr"/>
       <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -23764,10 +23704,8 @@
       <c r="D997" t="inlineStr"/>
       <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -23785,10 +23723,8 @@
       <c r="D998" t="inlineStr"/>
       <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -23806,10 +23742,8 @@
       <c r="D999" t="inlineStr"/>
       <c r="E999" t="inlineStr"/>
       <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -23827,10 +23761,8 @@
       <c r="D1000" t="inlineStr"/>
       <c r="E1000" t="inlineStr"/>
       <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -23860,10 +23792,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -23881,10 +23811,8 @@
       <c r="D1002" t="inlineStr"/>
       <c r="E1002" t="inlineStr"/>
       <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -23906,10 +23834,8 @@
       </c>
       <c r="E1003" t="inlineStr"/>
       <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1003" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1004">
@@ -23931,10 +23857,8 @@
       </c>
       <c r="E1004" t="inlineStr"/>
       <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1004" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -23956,10 +23880,8 @@
       </c>
       <c r="E1005" t="inlineStr"/>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -23981,10 +23903,8 @@
       </c>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -24006,10 +23926,8 @@
       </c>
       <c r="E1007" t="inlineStr"/>
       <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -24031,10 +23949,8 @@
       </c>
       <c r="E1008" t="inlineStr"/>
       <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -24056,10 +23972,8 @@
       </c>
       <c r="E1009" t="inlineStr"/>
       <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1010">
@@ -24081,10 +23995,8 @@
       </c>
       <c r="E1010" t="inlineStr"/>
       <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1010" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1011">
@@ -24106,10 +24018,8 @@
       </c>
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1011" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1012">
@@ -24131,10 +24041,8 @@
       </c>
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1012" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1013">
@@ -24156,10 +24064,8 @@
       </c>
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1014">
@@ -24177,10 +24083,8 @@
       </c>
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1015">
@@ -24198,10 +24102,8 @@
       </c>
       <c r="E1015" t="inlineStr"/>
       <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -24232,10 +24134,8 @@
       <c r="D1017" t="inlineStr"/>
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1017" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1018">
@@ -24265,10 +24165,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -24294,10 +24192,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -24323,10 +24219,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -24352,10 +24246,8 @@
         </is>
       </c>
       <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1021" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -24377,10 +24269,8 @@
       </c>
       <c r="E1022" t="inlineStr"/>
       <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -24402,10 +24292,8 @@
       </c>
       <c r="E1023" t="inlineStr"/>
       <c r="F1023" t="inlineStr"/>
-      <c r="G1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -24423,10 +24311,8 @@
       <c r="D1024" t="inlineStr"/>
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
-      <c r="G1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -24456,10 +24342,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -24477,10 +24361,8 @@
       <c r="D1026" t="inlineStr"/>
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -24502,10 +24384,8 @@
         </is>
       </c>
       <c r="F1027" t="inlineStr"/>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -24523,10 +24403,8 @@
       <c r="D1028" t="inlineStr"/>
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1029">
@@ -24544,10 +24422,8 @@
       <c r="D1029" t="inlineStr"/>
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -24565,10 +24441,8 @@
       <c r="D1030" t="inlineStr"/>
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
-      <c r="G1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -24586,10 +24460,8 @@
       <c r="D1031" t="inlineStr"/>
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -24607,10 +24479,8 @@
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
-      <c r="G1032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1032" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1033">
@@ -24641,10 +24511,8 @@
       <c r="D1034" t="inlineStr"/>
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
-      <c r="G1034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1034" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -24662,10 +24530,8 @@
       <c r="D1035" t="inlineStr"/>
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
-      <c r="G1035" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1035" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1036">
@@ -24687,10 +24553,8 @@
       </c>
       <c r="E1036" t="inlineStr"/>
       <c r="F1036" t="inlineStr"/>
-      <c r="G1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1036" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1037">
@@ -24720,10 +24584,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -24753,10 +24615,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G1038" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1038" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -24786,10 +24646,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -24819,10 +24677,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -24848,10 +24704,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -24881,10 +24735,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -24910,10 +24762,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -24939,10 +24789,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -24972,10 +24820,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -25001,10 +24847,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -25034,10 +24878,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G1047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1047" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -25063,10 +24905,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -25092,10 +24932,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -25121,10 +24959,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -25150,10 +24986,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -25171,10 +25005,8 @@
       <c r="D1052" t="inlineStr"/>
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
-      <c r="G1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -25196,10 +25028,8 @@
       </c>
       <c r="E1053" t="inlineStr"/>
       <c r="F1053" t="inlineStr"/>
-      <c r="G1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -25221,10 +25051,8 @@
       </c>
       <c r="E1054" t="inlineStr"/>
       <c r="F1054" t="inlineStr"/>
-      <c r="G1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -25276,10 +25104,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -25297,10 +25123,8 @@
       <c r="D1058" t="inlineStr"/>
       <c r="E1058" t="inlineStr"/>
       <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -25318,10 +25142,8 @@
       <c r="D1059" t="inlineStr"/>
       <c r="E1059" t="inlineStr"/>
       <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -25343,10 +25165,8 @@
       </c>
       <c r="E1060" t="inlineStr"/>
       <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -25368,10 +25188,8 @@
       </c>
       <c r="E1061" t="inlineStr"/>
       <c r="F1061" t="inlineStr"/>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -25393,10 +25211,8 @@
       </c>
       <c r="E1062" t="inlineStr"/>
       <c r="F1062" t="inlineStr"/>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -25431,10 +25247,8 @@
       </c>
       <c r="E1064" t="inlineStr"/>
       <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -25460,10 +25274,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1065" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1066">
@@ -25485,10 +25297,8 @@
       </c>
       <c r="E1066" t="inlineStr"/>
       <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -25514,10 +25324,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -25543,10 +25351,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -25568,10 +25374,8 @@
       </c>
       <c r="E1069" t="inlineStr"/>
       <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -25593,10 +25397,8 @@
       </c>
       <c r="E1070" t="inlineStr"/>
       <c r="F1070" t="inlineStr"/>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -25622,10 +25424,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -25643,10 +25443,8 @@
       <c r="D1072" t="inlineStr"/>
       <c r="E1072" t="inlineStr"/>
       <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -25668,10 +25466,8 @@
       </c>
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -25702,7 +25498,2839 @@
       <c r="D1075" t="inlineStr"/>
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
+      <c r="G1075" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr"/>
+      <c r="C1076" t="inlineStr"/>
+      <c r="D1076" t="inlineStr"/>
+      <c r="E1076" t="inlineStr"/>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr"/>
+      <c r="C1077" t="inlineStr"/>
+      <c r="D1077" t="inlineStr"/>
+      <c r="E1077" t="inlineStr"/>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr"/>
+      <c r="D1078" t="inlineStr"/>
+      <c r="E1078" t="inlineStr"/>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr"/>
+      <c r="D1079" t="inlineStr"/>
+      <c r="E1079" t="inlineStr"/>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr"/>
+      <c r="D1080" t="inlineStr"/>
+      <c r="E1080" t="inlineStr"/>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr"/>
+      <c r="C1081" t="inlineStr"/>
+      <c r="D1081" t="inlineStr"/>
+      <c r="E1081" t="inlineStr"/>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr"/>
+      <c r="D1082" t="inlineStr"/>
+      <c r="E1082" t="inlineStr"/>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr"/>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr"/>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr"/>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr"/>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr"/>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr"/>
+      <c r="D1087" t="inlineStr"/>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr"/>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr"/>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr"/>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G1091" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr"/>
+      <c r="D1092" t="inlineStr"/>
+      <c r="E1092" t="inlineStr"/>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr"/>
+      <c r="E1093" t="inlineStr"/>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G1094" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr"/>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G1095" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr"/>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr"/>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr"/>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr"/>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr"/>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr"/>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr"/>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr"/>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr"/>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr"/>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr"/>
+      <c r="E1108" t="inlineStr"/>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr"/>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr"/>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr"/>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr"/>
+      <c r="D1112" t="inlineStr"/>
+      <c r="E1112" t="inlineStr"/>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr"/>
+      <c r="E1113" t="inlineStr"/>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr"/>
+      <c r="E1114" t="inlineStr"/>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr"/>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="inlineStr"/>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr"/>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr"/>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr"/>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr"/>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr"/>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr"/>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr"/>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr"/>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr"/>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr"/>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr"/>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr"/>
+      <c r="C1130" t="inlineStr"/>
+      <c r="D1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr"/>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr"/>
+      <c r="D1131" t="inlineStr"/>
+      <c r="E1131" t="inlineStr"/>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr"/>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr"/>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E1133" t="inlineStr"/>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr"/>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr"/>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr"/>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr"/>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E1136" t="inlineStr"/>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr"/>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E1137" t="inlineStr"/>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr"/>
+      <c r="D1138" t="inlineStr"/>
+      <c r="E1138" t="inlineStr"/>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr"/>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G1139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr"/>
+      <c r="D1140" t="inlineStr"/>
+      <c r="E1140" t="inlineStr"/>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr"/>
+      <c r="D1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr"/>
+      <c r="D1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr"/>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr"/>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr"/>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr"/>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr"/>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>12:05 AM</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G1151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr"/>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr"/>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G1155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr"/>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F1156" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr"/>
+      <c r="F1157" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr"/>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E1158" t="inlineStr"/>
+      <c r="F1158" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr"/>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F1159" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr"/>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr"/>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F1161" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr"/>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E1162" t="inlineStr"/>
+      <c r="F1162" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr"/>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr"/>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G1163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr"/>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr"/>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr"/>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr"/>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr"/>
+      <c r="D1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr"/>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr"/>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E1167" t="inlineStr"/>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr"/>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr"/>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr"/>
+      <c r="C1169" t="inlineStr"/>
+      <c r="D1169" t="inlineStr"/>
+      <c r="E1169" t="inlineStr"/>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr"/>
+      <c r="C1170" t="inlineStr"/>
+      <c r="D1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr"/>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr"/>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr"/>
+      <c r="F1171" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr"/>
+      <c r="D1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr"/>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr"/>
+      <c r="D1173" t="inlineStr"/>
+      <c r="E1173" t="inlineStr"/>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr"/>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr"/>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr"/>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr"/>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr"/>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr"/>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr"/>
+      <c r="C1177" t="inlineStr"/>
+      <c r="D1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr"/>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr"/>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr"/>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr"/>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr"/>
+      <c r="F1179" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr"/>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1180" t="inlineStr"/>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr"/>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr"/>
+      <c r="F1181" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr"/>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr"/>
+      <c r="F1182" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr"/>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr"/>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr"/>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr"/>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr"/>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr"/>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr"/>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr">
         <is>
           <t>2</t>
         </is>
